--- a/議事録チェック一覧.xlsx
+++ b/議事録チェック一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E89E225-9C72-497E-A2DC-F97083D4D813}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01反復計画書_LV50(計画).xlsx</t>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイカク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,7 +632,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,8 +693,12 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -1291,6 +1311,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1299,20 +1325,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DA4827-CDA2-4C6D-9E53-984B3C29DE0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DA4827-CDA2-4C6D-9E53-984B3C29DE0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/議事録チェック一覧.xlsx
+++ b/議事録チェック一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E314108-977C-495B-9C41-0A5DD545751E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="8625" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -154,22 +154,6 @@
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01反復計画書_LV50(計画).xlsx</t>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイカク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -632,7 +616,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,12 +677,8 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -1141,8 +1121,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1158,6 +1138,8 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1208,6 +1190,18 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1326,36 +1320,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DA4827-CDA2-4C6D-9E53-984B3C29DE0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180DE5F6-8A32-4A0A-97EC-EACD535B4B4F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
 </file>
--- a/議事録チェック一覧.xlsx
+++ b/議事録チェック一覧.xlsx
@@ -1,22 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B51DC17-23D4-400E-9573-66A0FEF73686}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="議事録チェック一覧" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講生記入</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師記入</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -25,6 +63,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ファイル名(レビュー議事録)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合否結果</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘事項</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>計画</t>
     <rPh sb="0" eb="2">
       <t>ケイカク</t>
@@ -32,69 +100,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名(レビュー議事録)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>01_レビュー議事録(計画).xlsx</t>
     <rPh sb="7" eb="10">
       <t>ギジロク</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>ケイカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否結果</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指摘事項</t>
-    <rPh sb="0" eb="2">
-      <t>シテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求分析</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01_レビュー議事録(要求分析).xlsx</t>
-    <rPh sb="7" eb="10">
-      <t>ギジロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,43 +136,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>要求分析</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_レビュー議事録(要求分析).xlsx</t>
+    <rPh sb="7" eb="10">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画</t>
+  </si>
+  <si>
+    <t>01反復計画書_LV50(計画).xlsx</t>
+  </si>
+  <si>
     <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講生記入</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師記入</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様想定なので、さん付けではなく、様もしくは（敬称略）にすること。_x000D_
+お客様も出席者の一人なので、出席者欄にも追記する。_x000D_
+指摘の数に「その他」の数はカウントに入らない。_x000D_
+「こちら」がよくわからないので、文書だけ見てわかるようにする。</t>
+  </si>
+  <si>
+    <t>01_レビュー(ガントチャート)結果記録.xlsx</t>
+  </si>
+  <si>
+    <t>「抜けている部分の修正」は、どこが抜けているのかを具体的に書くようにしましょう。</t>
+  </si>
+  <si>
+    <t>02_レビュー(ガントチャート)結果記録.xlsx</t>
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者やレビューアに不備があります。</t>
+  </si>
+  <si>
+    <t>要求分析</t>
+  </si>
+  <si>
+    <t>01レビュー（要求分析）結果記録.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,12 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,461 +653,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="5" spans="1:4" ht="54">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1095,32 +1194,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1304,15 +1387,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1320,11 +1394,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180DE5F6-8A32-4A0A-97EC-EACD535B4B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180DE5F6-8A32-4A0A-97EC-EACD535B4B4F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/議事録チェック一覧.xlsx
+++ b/議事録チェック一覧.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B51DC17-23D4-400E-9573-66A0FEF73686}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F0E5E-806C-49F9-922A-EF981D2B886B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -658,14 +658,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -682,17 +682,17 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="73.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -730,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -742,7 +742,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="54">
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -796,376 +796,378 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1204,6 +1206,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1387,20 +1395,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180DE5F6-8A32-4A0A-97EC-EACD535B4B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180DE5F6-8A32-4A0A-97EC-EACD535B4B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>